--- a/100runs/run038/NotionalETEOutput038.xlsx
+++ b/100runs/run038/NotionalETEOutput038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,22 +52,19 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_229.MISSILE_BRAVER_229</t>
+    <t>MISSILE_BRAVER_137.MISSILE_BRAVER_137</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_200.MISSILE_SOMERSAULT_200</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT_164.MISSILE_SOMERSAULT_164</t>
+    <t>MISSILE_HELLMASKER_196.MISSILE_HELLMASKER_196</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G2">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H2">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I2">
-        <v>-835.1425784460487</v>
+        <v>1114858.441940401</v>
       </c>
       <c r="J2">
-        <v>674.0156663172361</v>
+        <v>4843221.5969303</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.132277995</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G3">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H3">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I3">
-        <v>-818.6546401822154</v>
+        <v>1114888.05585942</v>
       </c>
       <c r="J3">
-        <v>657.6196999863342</v>
+        <v>4843172.945358918</v>
       </c>
       <c r="K3">
-        <v>324.1951921582443</v>
+        <v>3984672.928179321</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G4">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H4">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I4">
-        <v>-801.7607016072603</v>
+        <v>1114918.398993952</v>
       </c>
       <c r="J4">
-        <v>641.2237336554325</v>
+        <v>4843124.293787534</v>
       </c>
       <c r="K4">
-        <v>632.2245259780669</v>
+        <v>3984961.575424458</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G5">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H5">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I5">
-        <v>-784.4507653370355</v>
+        <v>1114949.489300256</v>
       </c>
       <c r="J5">
-        <v>624.8277673245308</v>
+        <v>4843075.642216153</v>
       </c>
       <c r="K5">
-        <v>924.0880014594702</v>
+        <v>3985235.074013403</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G6">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H6">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I6">
-        <v>-766.7145878110058</v>
+        <v>1114981.345176751</v>
       </c>
       <c r="J6">
-        <v>608.4318009936291</v>
+        <v>4843026.99064477</v>
       </c>
       <c r="K6">
-        <v>1199.785618602452</v>
+        <v>3985493.423946158</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G7">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H7">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I7">
-        <v>-748.5416732303814</v>
+        <v>1115013.985474897</v>
       </c>
       <c r="J7">
-        <v>592.0358346627272</v>
+        <v>4842978.339073388</v>
       </c>
       <c r="K7">
-        <v>1459.317377407015</v>
+        <v>3985736.625222723</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G8">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H8">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I8">
-        <v>-729.9212673469842</v>
+        <v>1115047.429510356</v>
       </c>
       <c r="J8">
-        <v>575.6398683318254</v>
+        <v>4842929.687502004</v>
       </c>
       <c r="K8">
-        <v>1702.683277873157</v>
+        <v>3985964.677843097</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G9">
-        <v>-110.7723959501473</v>
+        <v>4841130.227240704</v>
       </c>
       <c r="H9">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I9">
-        <v>-710.8423510991677</v>
+        <v>1115081.697074421</v>
       </c>
       <c r="J9">
-        <v>559.2439020009236</v>
+        <v>4842881.035930622</v>
       </c>
       <c r="K9">
-        <v>1929.883320000879</v>
+        <v>3986177.58180728</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>136.8675992810171</v>
+        <v>1116578.443669417</v>
       </c>
       <c r="G10">
-        <v>-92.48075534096603</v>
+        <v>4841146.740079234</v>
       </c>
       <c r="H10">
-        <v>694.6856605360274</v>
+        <v>3985228.944333978</v>
       </c>
       <c r="I10">
-        <v>-691.2936340910298</v>
+        <v>1115116.808445725</v>
       </c>
       <c r="J10">
-        <v>542.8479356700219</v>
+        <v>4842832.384359241</v>
       </c>
       <c r="K10">
-        <v>2140.91750379018</v>
+        <v>3986375.337115273</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>106.2252235315059</v>
+        <v>1116529.763108271</v>
       </c>
       <c r="G11">
-        <v>-74.1891147317848</v>
+        <v>4841163.252917764</v>
       </c>
       <c r="H11">
-        <v>855.8480592018016</v>
+        <v>3985428.19877155</v>
       </c>
       <c r="I11">
-        <v>-671.2635479110562</v>
+        <v>1115152.784402246</v>
       </c>
       <c r="J11">
-        <v>526.4519693391202</v>
+        <v>4842783.732787858</v>
       </c>
       <c r="K11">
-        <v>2335.785829241059</v>
+        <v>3986557.943767075</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>88.22436496617233</v>
+        <v>1116501.165720678</v>
       </c>
       <c r="G12">
-        <v>-55.89747412260358</v>
+        <v>4841179.765756294</v>
       </c>
       <c r="H12">
-        <v>951.8446260051111</v>
+        <v>3985546.884904827</v>
       </c>
       <c r="I12">
-        <v>-650.7402392862424</v>
+        <v>1115189.646233599</v>
       </c>
       <c r="J12">
-        <v>510.0560030082183</v>
+        <v>4842735.081216475</v>
       </c>
       <c r="K12">
-        <v>2514.48829635352</v>
+        <v>3986725.401762687</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>76.86090242993285</v>
+        <v>1116483.112951619</v>
       </c>
       <c r="G13">
-        <v>-37.60583351342235</v>
+        <v>4841196.278594824</v>
       </c>
       <c r="H13">
-        <v>1020.446884139524</v>
+        <v>3985631.701862591</v>
       </c>
       <c r="I13">
-        <v>-629.7115630676399</v>
+        <v>1115227.415753637</v>
       </c>
       <c r="J13">
-        <v>493.6600366773165</v>
+        <v>4842686.429645092</v>
       </c>
       <c r="K13">
-        <v>2677.02490512756</v>
+        <v>3986877.711102108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>68.93606978416189</v>
+        <v>1116470.523023758</v>
       </c>
       <c r="G14">
-        <v>-19.31419290424113</v>
+        <v>4841212.791433354</v>
       </c>
       <c r="H14">
-        <v>1073.867425795104</v>
+        <v>3985697.748782161</v>
       </c>
       <c r="I14">
-        <v>-608.1650750431819</v>
+        <v>1115266.115313358</v>
       </c>
       <c r="J14">
-        <v>477.2640703464147</v>
+        <v>4842637.77807371</v>
       </c>
       <c r="K14">
-        <v>2823.39565556318</v>
+        <v>3987014.871785338</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>63.02390730875671</v>
+        <v>1116461.130560548</v>
       </c>
       <c r="G15">
-        <v>-1.022552295059915</v>
+        <v>4841229.304271883</v>
       </c>
       <c r="H15">
-        <v>1117.622993085938</v>
+        <v>3985751.846332355</v>
       </c>
       <c r="I15">
-        <v>-586.0880245735273</v>
+        <v>1115305.767814134</v>
       </c>
       <c r="J15">
-        <v>460.868104015513</v>
+        <v>4842589.126502328</v>
       </c>
       <c r="K15">
-        <v>2953.600547660379</v>
+        <v>3987136.883812378</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>58.40142186200288</v>
+        <v>1116453.786965936</v>
       </c>
       <c r="G16">
-        <v>17.26908831412131</v>
+        <v>4841245.817110413</v>
       </c>
       <c r="H16">
-        <v>1154.680764579668</v>
+        <v>3985797.66300844</v>
       </c>
       <c r="I16">
-        <v>-563.4673470465713</v>
+        <v>1115346.396721262</v>
       </c>
       <c r="J16">
-        <v>444.4721376846112</v>
+        <v>4842540.474930945</v>
       </c>
       <c r="K16">
-        <v>3067.639581419157</v>
+        <v>3987243.747183228</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>54.66149456137738</v>
+        <v>1116447.845463191</v>
       </c>
       <c r="G17">
-        <v>35.56072892330254</v>
+        <v>4841262.329948943</v>
       </c>
       <c r="H17">
-        <v>1186.821632124457</v>
+        <v>3985837.400630482</v>
       </c>
       <c r="I17">
-        <v>-540.2896561461556</v>
+        <v>1115388.026077851</v>
       </c>
       <c r="J17">
-        <v>428.0761713537094</v>
+        <v>4842491.823359562</v>
       </c>
       <c r="K17">
-        <v>3165.512756839516</v>
+        <v>3987335.461897886</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>51.55602229110665</v>
+        <v>1116442.911898836</v>
       </c>
       <c r="G18">
-        <v>53.85236953248376</v>
+        <v>4841278.842787473</v>
       </c>
       <c r="H18">
-        <v>1215.198837708789</v>
+        <v>3985872.485018562</v>
       </c>
       <c r="I18">
-        <v>-516.5412359304021</v>
+        <v>1115430.680519047</v>
       </c>
       <c r="J18">
-        <v>411.6802050228076</v>
+        <v>4842443.17178818</v>
       </c>
       <c r="K18">
-        <v>3247.220073921454</v>
+        <v>3987412.027956354</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>48.9243681998084</v>
+        <v>1116438.73107425</v>
       </c>
       <c r="G19">
-        <v>72.14401014166499</v>
+        <v>4841295.355626003</v>
       </c>
       <c r="H19">
-        <v>1240.602147020029</v>
+        <v>3985903.892605885</v>
       </c>
       <c r="I19">
-        <v>-492.2080327149813</v>
+        <v>1115474.385286616</v>
       </c>
       <c r="J19">
-        <v>395.2842386919058</v>
+        <v>4842394.520216797</v>
       </c>
       <c r="K19">
-        <v>3312.761532664972</v>
+        <v>3987473.445358632</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>46.65745494529207</v>
+        <v>1116435.129701752</v>
       </c>
       <c r="G20">
-        <v>90.43565075084621</v>
+        <v>4841311.868464533</v>
       </c>
       <c r="H20">
-        <v>1263.596176564264</v>
+        <v>3985932.321460644</v>
       </c>
       <c r="I20">
-        <v>-467.2756467565173</v>
+        <v>1115519.16624388</v>
       </c>
       <c r="J20">
-        <v>378.8882723610041</v>
+        <v>4842345.868645415</v>
       </c>
       <c r="K20">
-        <v>3362.137133070069</v>
+        <v>3987519.714104719</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>44.67832253875974</v>
+        <v>1116431.985517472</v>
       </c>
       <c r="G21">
-        <v>108.7272913600274</v>
+        <v>4841328.381303063</v>
       </c>
       <c r="H21">
-        <v>1284.598597045213</v>
+        <v>3985958.2879734</v>
       </c>
       <c r="I21">
-        <v>-441.7293237312008</v>
+        <v>1115565.049891018</v>
       </c>
       <c r="J21">
-        <v>362.4923060301023</v>
+        <v>4842297.217074032</v>
       </c>
       <c r="K21">
-        <v>3395.346875136745</v>
+        <v>3987550.834194616</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>42.93093568071634</v>
+        <v>1116429.209499924</v>
       </c>
       <c r="G22">
-        <v>127.0189319692087</v>
+        <v>4841344.894141592</v>
       </c>
       <c r="H22">
-        <v>1303.927079230593</v>
+        <v>3985982.184898978</v>
       </c>
       <c r="I22">
-        <v>-415.5539460035719</v>
+        <v>1115612.063380754</v>
       </c>
       <c r="J22">
-        <v>346.0963396992005</v>
+        <v>4842248.56550265</v>
       </c>
       <c r="K22">
-        <v>3412.390758865002</v>
+        <v>3987566.805628322</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>41.37340778025613</v>
+        <v>1116426.735105223</v>
       </c>
       <c r="G23">
-        <v>145.3105725783899</v>
+        <v>4841361.406980122</v>
       </c>
       <c r="H23">
-        <v>1321.828870941125</v>
+        <v>3986004.317924227</v>
       </c>
       <c r="I23">
-        <v>-388.7340236803062</v>
+        <v>1115660.234534424</v>
       </c>
       <c r="J23">
-        <v>329.7003733682988</v>
+        <v>4842199.913931267</v>
       </c>
       <c r="K23">
-        <v>3413.268784254838</v>
+        <v>3987567.628405837</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>39.97372298286991</v>
+        <v>1116424.511470805</v>
       </c>
       <c r="G24">
-        <v>163.6022131875711</v>
+        <v>4841377.919818653</v>
       </c>
       <c r="H24">
-        <v>1338.50018796408</v>
+        <v>3986024.929642124</v>
       </c>
       <c r="I24">
-        <v>-361.2536854437062</v>
+        <v>1115709.591858436</v>
       </c>
       <c r="J24">
-        <v>313.304407037397</v>
+        <v>4842151.262359885</v>
       </c>
       <c r="K24">
-        <v>3397.980951306254</v>
+        <v>3987553.302527162</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>38.70693764821766</v>
+        <v>1116422.498969508</v>
       </c>
       <c r="G25">
-        <v>181.8938537967523</v>
+        <v>4841394.432657182</v>
       </c>
       <c r="H25">
-        <v>1354.099358571214</v>
+        <v>3986044.215803113</v>
       </c>
       <c r="I25">
-        <v>-333.0966691594772</v>
+        <v>1115760.164561144</v>
       </c>
       <c r="J25">
-        <v>296.9084407064952</v>
+        <v>4842102.610788502</v>
       </c>
       <c r="K25">
-        <v>3366.527260019249</v>
+        <v>3987523.827992296</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>37.55329306496851</v>
+        <v>1116420.6662113</v>
       </c>
       <c r="G26">
-        <v>200.1854944059336</v>
+        <v>4841410.945495713</v>
       </c>
       <c r="H26">
-        <v>1368.755990761093</v>
+        <v>3986062.336649091</v>
       </c>
       <c r="I26">
-        <v>-304.2463122532293</v>
+        <v>1115811.98257013</v>
       </c>
       <c r="J26">
-        <v>280.5124743755934</v>
+        <v>4842053.95921712</v>
       </c>
       <c r="K26">
-        <v>3318.907710393824</v>
+        <v>3987479.20480124</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>36.49690868734343</v>
+        <v>1116418.987967266</v>
       </c>
       <c r="G27">
-        <v>218.4771350151148</v>
+        <v>4841427.458334242</v>
       </c>
       <c r="H27">
-        <v>1382.577524320515</v>
+        <v>3986079.42501411</v>
       </c>
       <c r="I27">
-        <v>-274.6855418500068</v>
+        <v>1115865.076549916</v>
       </c>
       <c r="J27">
-        <v>264.1165080446916</v>
+        <v>4842005.307645737</v>
       </c>
       <c r="K27">
-        <v>3255.122302429978</v>
+        <v>3987419.432953992</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>35.52485622036022</v>
+        <v>1116417.443698638</v>
       </c>
       <c r="G28">
-        <v>236.768775624296</v>
+        <v>4841443.971172771</v>
       </c>
       <c r="H28">
-        <v>1395.654014840655</v>
+        <v>3986095.59223913</v>
       </c>
       <c r="I28">
-        <v>-244.3968646710152</v>
+        <v>1115919.477920108</v>
       </c>
       <c r="J28">
-        <v>247.7205417137899</v>
+        <v>4841956.656074354</v>
       </c>
       <c r="K28">
-        <v>3175.171036127713</v>
+        <v>3987344.512450555</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>34.62649007881877</v>
+        <v>1116416.016493115</v>
       </c>
       <c r="G29">
-        <v>255.0604162334772</v>
+        <v>4841460.484011302</v>
       </c>
       <c r="H29">
-        <v>1408.061693008686</v>
+        <v>3986110.932572579</v>
       </c>
       <c r="I29">
-        <v>-213.3623566815625</v>
+        <v>1115975.218873993</v>
       </c>
       <c r="J29">
-        <v>231.3245753828881</v>
+        <v>4841908.004502973</v>
       </c>
       <c r="K29">
-        <v>3079.053911487027</v>
+        <v>3987254.443290927</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>33.79295440581817</v>
+        <v>1116414.692281683</v>
       </c>
       <c r="G30">
-        <v>273.3520568426584</v>
+        <v>4841476.996849831</v>
       </c>
       <c r="H30">
-        <v>1419.865657160069</v>
+        <v>3986125.526499311</v>
       </c>
       <c r="I30">
-        <v>-181.5636524840936</v>
+        <v>1116032.332397587</v>
       </c>
       <c r="J30">
-        <v>214.9286090519863</v>
+        <v>4841859.35293159</v>
       </c>
       <c r="K30">
-        <v>2966.77092850792</v>
+        <v>3987149.225475109</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>33.01681417816673</v>
+        <v>1116413.459252556</v>
       </c>
       <c r="G31">
-        <v>291.6436974518397</v>
+        <v>4841493.509688362</v>
       </c>
       <c r="H31">
-        <v>1431.121940648593</v>
+        <v>3986139.443296617</v>
       </c>
       <c r="I31">
-        <v>-148.9819344500334</v>
+        <v>1116090.852289156</v>
       </c>
       <c r="J31">
-        <v>198.5326427210845</v>
+        <v>4841810.701360207</v>
       </c>
       <c r="K31">
-        <v>2838.322087190393</v>
+        <v>3987028.8590031</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>32.29177512259448</v>
+        <v>1116412.307406225</v>
       </c>
       <c r="G32">
-        <v>309.9353380610209</v>
+        <v>4841510.022526892</v>
       </c>
       <c r="H32">
-        <v>1441.879120524021</v>
+        <v>3986152.743023128</v>
       </c>
       <c r="I32">
-        <v>-115.5979215840156</v>
+        <v>1116150.813179217</v>
       </c>
       <c r="J32">
-        <v>182.1366763901827</v>
+        <v>4841762.049788824</v>
       </c>
       <c r="K32">
-        <v>2693.707387534445</v>
+        <v>3986893.3438749</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>31.6124682469828</v>
+        <v>1116411.228213144</v>
       </c>
       <c r="G33">
-        <v>328.2269786702021</v>
+        <v>4841526.535365421</v>
       </c>
       <c r="H33">
-        <v>1452.179584471291</v>
+        <v>3986165.478085199</v>
       </c>
       <c r="I33">
-        <v>-81.3918581139005</v>
+        <v>1116212.250551033</v>
       </c>
       <c r="J33">
-        <v>165.740710059281</v>
+        <v>4841713.398217442</v>
       </c>
       <c r="K33">
-        <v>2532.926829540078</v>
+        <v>3986742.680090509</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>30.97428208724878</v>
+        <v>1116410.214347227</v>
       </c>
       <c r="G34">
-        <v>346.5186192793834</v>
+        <v>4841543.048203952</v>
       </c>
       <c r="H34">
-        <v>1462.060539588716</v>
+        <v>3986177.694484129</v>
       </c>
       <c r="I34">
-        <v>-46.34350179983515</v>
+        <v>1116275.200761609</v>
       </c>
       <c r="J34">
-        <v>149.3447437283792</v>
+        <v>4841664.74664606</v>
       </c>
       <c r="K34">
-        <v>2355.98041320729</v>
+        <v>3986576.867649928</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>30.37323067081636</v>
+        <v>1116409.259476089</v>
       </c>
       <c r="G35">
-        <v>364.8102598885646</v>
+        <v>4841559.56104248</v>
       </c>
       <c r="H35">
-        <v>1471.554823666825</v>
+        <v>3986189.432819185</v>
       </c>
       <c r="I35">
-        <v>-10.43211195543268</v>
+        <v>1116339.701063207</v>
       </c>
       <c r="J35">
-        <v>132.9487773974774</v>
+        <v>4841616.095074677</v>
       </c>
       <c r="K35">
-        <v>2162.868138536081</v>
+        <v>3986395.906553157</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>29.80584854811831</v>
+        <v>1116408.358094278</v>
       </c>
       <c r="G36">
-        <v>383.1019004977458</v>
+        <v>4841576.073881011</v>
       </c>
       <c r="H36">
-        <v>1480.691563624617</v>
+        <v>3986200.729101672</v>
       </c>
       <c r="I36">
-        <v>26.36356282601545</v>
+        <v>1116405.789625392</v>
       </c>
       <c r="J36">
-        <v>116.5528110665756</v>
+        <v>4841567.443503294</v>
       </c>
       <c r="K36">
-        <v>1953.590005526452</v>
+        <v>3986199.796800195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>29.26910657225643</v>
+        <v>1116407.505389489</v>
       </c>
       <c r="G37">
-        <v>401.393541106927</v>
+        <v>4841592.586719541</v>
       </c>
       <c r="H37">
-        <v>1489.49671440629</v>
+        <v>3986211.615421194</v>
       </c>
       <c r="I37">
-        <v>64.0652972475566</v>
+        <v>1116473.505557621</v>
       </c>
       <c r="J37">
-        <v>100.1568447356738</v>
+        <v>4841518.791931912</v>
       </c>
       <c r="K37">
-        <v>1728.146014178403</v>
+        <v>3985988.538391042</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>28.76034374988877</v>
+        <v>1116406.697134284</v>
       </c>
       <c r="G38">
-        <v>419.6851817161083</v>
+        <v>4841609.09955807</v>
       </c>
       <c r="H38">
-        <v>1497.993503471487</v>
+        <v>3986222.120495209</v>
       </c>
       <c r="I38">
-        <v>102.6954021942689</v>
+        <v>1116542.888932384</v>
       </c>
       <c r="J38">
-        <v>83.76087840477211</v>
+        <v>4841470.14036053</v>
       </c>
       <c r="K38">
-        <v>1486.536164491934</v>
+        <v>3985762.131325699</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>28.27721166168386</v>
+        <v>1116405.929597806</v>
       </c>
       <c r="G39">
-        <v>437.9768223252895</v>
+        <v>4841625.612396601</v>
       </c>
       <c r="H39">
-        <v>1506.202800055368</v>
+        <v>3986232.270125564</v>
       </c>
       <c r="I39">
-        <v>142.2767379362486</v>
+        <v>1116613.980808919</v>
       </c>
       <c r="J39">
-        <v>67.3649120738703</v>
+        <v>4841421.488789147</v>
       </c>
       <c r="K39">
-        <v>1228.760456467043</v>
+        <v>3985520.575604165</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>27.81762880219283</v>
+        <v>1116405.199473233</v>
       </c>
       <c r="G40">
-        <v>456.2684629344707</v>
+        <v>4841642.125235131</v>
       </c>
       <c r="H40">
-        <v>1514.143423978832</v>
+        <v>3986242.087580299</v>
       </c>
       <c r="I40">
-        <v>182.8327276567138</v>
+        <v>1116686.82325751</v>
       </c>
       <c r="J40">
-        <v>50.96894574296849</v>
+        <v>4841372.837217764</v>
       </c>
       <c r="K40">
-        <v>954.8188901037327</v>
+        <v>3985263.871226441</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>27.37974281326451</v>
+        <v>1116404.503817785</v>
       </c>
       <c r="G41">
-        <v>474.5601035436519</v>
+        <v>4841658.63807366</v>
       </c>
       <c r="H41">
-        <v>1521.83240550854</v>
+        <v>3986251.59391492</v>
       </c>
       <c r="I41">
-        <v>224.3873713132185</v>
+        <v>1116761.459384384</v>
       </c>
       <c r="J41">
-        <v>34.57297941206676</v>
+        <v>4841324.185646382</v>
       </c>
       <c r="K41">
-        <v>664.7114654020023</v>
+        <v>3984992.018192525</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>26.96189904786463</v>
+        <v>1116403.840002774</v>
       </c>
       <c r="G42">
-        <v>492.8517441528331</v>
+        <v>4841675.15091219</v>
       </c>
       <c r="H42">
-        <v>1529.285205292366</v>
+        <v>3986260.808244327</v>
       </c>
       <c r="I42">
-        <v>266.9652598401943</v>
+        <v>1116837.933357218</v>
       </c>
       <c r="J42">
-        <v>18.17701308116496</v>
+        <v>4841275.534074999</v>
       </c>
       <c r="K42">
-        <v>358.4381823618506</v>
+        <v>3984705.01650242</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>26.56261424767465</v>
+        <v>1116403.205671798</v>
       </c>
       <c r="G43">
-        <v>511.1433847620144</v>
+        <v>4841691.66375072</v>
       </c>
       <c r="H43">
-        <v>1536.515901512132</v>
+        <v>3986269.747974193</v>
       </c>
       <c r="I43">
-        <v>310.5915897012073</v>
+        <v>1116916.290431279</v>
       </c>
       <c r="J43">
-        <v>1.781046750263152</v>
+        <v>4841226.882503617</v>
       </c>
       <c r="K43">
-        <v>35.9990409832788</v>
+        <v>3984402.866156124</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>26.18055437982759</v>
+        <v>1116402.59870552</v>
       </c>
       <c r="G44">
-        <v>529.4350253711956</v>
+        <v>4841708.17658925</v>
       </c>
       <c r="H44">
-        <v>1543.537349948039</v>
+        <v>3986278.428998865</v>
       </c>
       <c r="I44">
-        <v>355.2921777995599</v>
+        <v>1116996.5769762</v>
       </c>
       <c r="J44">
-        <v>-14.61491958063858</v>
+        <v>4841178.230932235</v>
       </c>
       <c r="K44">
-        <v>-302.6059587337124</v>
+        <v>3984085.567153637</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>25.81451587798209</v>
+        <v>1116402.017191873</v>
       </c>
       <c r="G45">
-        <v>547.7266659803768</v>
+        <v>4841724.68942778</v>
       </c>
       <c r="H45">
-        <v>1550.361321527593</v>
+        <v>3986286.865871425</v>
       </c>
       <c r="I45">
-        <v>401.0934767560476</v>
+        <v>1117078.840503429</v>
       </c>
       <c r="J45">
-        <v>-31.01088591154038</v>
+        <v>4841129.579360852</v>
       </c>
       <c r="K45">
-        <v>-657.376816789125</v>
+        <v>3983753.119494961</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>25.46340968666204</v>
+        <v>1116401.45940071</v>
       </c>
       <c r="G46">
-        <v>566.0183065895581</v>
+        <v>4841741.202266309</v>
       </c>
       <c r="H46">
-        <v>1556.99862105586</v>
+        <v>3986295.071950483</v>
       </c>
       <c r="I46">
-        <v>448.0225905629167</v>
+        <v>1117163.129694334</v>
       </c>
       <c r="J46">
-        <v>-47.40685224244219</v>
+        <v>4841080.927789469</v>
       </c>
       <c r="K46">
-        <v>-1028.313533182959</v>
+        <v>3983405.523180092</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>25.12624762698187</v>
+        <v>1116400.923762142</v>
       </c>
       <c r="G47">
-        <v>584.3099471987392</v>
+        <v>4841757.71510484</v>
       </c>
       <c r="H47">
-        <v>1563.459190134525</v>
+        <v>3986303.059527416</v>
       </c>
       <c r="I47">
-        <v>496.1072906232869</v>
+        <v>1117249.494429021</v>
       </c>
       <c r="J47">
-        <v>-63.802818573344</v>
+        <v>4841032.276218086</v>
       </c>
       <c r="K47">
-        <v>-1415.416107915212</v>
+        <v>3983042.778209034</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>24.80213069497334</v>
+        <v>1116400.408847951</v>
       </c>
       <c r="G48">
-        <v>602.6015878079204</v>
+        <v>4841774.227943369</v>
       </c>
       <c r="H48">
-        <v>1569.752196731017</v>
+        <v>3986310.839937117</v>
       </c>
       <c r="I48">
-        <v>545.3760321855306</v>
+        <v>1117337.985815845</v>
       </c>
       <c r="J48">
-        <v>-80.19878490424566</v>
+        <v>4840983.624646705</v>
       </c>
       <c r="K48">
-        <v>-1818.684540985884</v>
+        <v>3982664.884581785</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>24.4902389769613</v>
+        <v>1116399.913355565</v>
       </c>
       <c r="G49">
-        <v>620.8932284171018</v>
+        <v>4841790.740781899</v>
       </c>
       <c r="H49">
-        <v>1575.88611342327</v>
+        <v>3986318.423654726</v>
       </c>
       <c r="I49">
-        <v>595.8579711823339</v>
+        <v>1117428.656221659</v>
       </c>
       <c r="J49">
-        <v>-96.59475123514746</v>
+        <v>4840934.973075322</v>
       </c>
       <c r="K49">
-        <v>-2238.118832394978</v>
+        <v>3982271.842298346</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>24.18982292441754</v>
+        <v>1116399.436094202</v>
       </c>
       <c r="G50">
-        <v>639.184869026283</v>
+        <v>4841807.253620429</v>
       </c>
       <c r="H50">
-        <v>1581.868785995908</v>
+        <v>3986325.820380442</v>
       </c>
       <c r="I50">
-        <v>647.5829814844009</v>
+        <v>1117521.559302801</v>
       </c>
       <c r="J50">
-        <v>-112.9907175660493</v>
+        <v>4840886.321503939</v>
       </c>
       <c r="K50">
-        <v>-2673.718982142493</v>
+        <v>3981863.651358716</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>23.90019577692069</v>
+        <v>1116398.975972827</v>
       </c>
       <c r="G51">
-        <v>657.4765096354641</v>
+        <v>4841823.766458959</v>
       </c>
       <c r="H51">
-        <v>1587.707493781346</v>
+        <v>3986333.039114126</v>
       </c>
       <c r="I51">
-        <v>700.5816725790193</v>
+        <v>1117616.750036848</v>
       </c>
       <c r="J51">
-        <v>-129.3866838969511</v>
+        <v>4840837.669932556</v>
       </c>
       <c r="K51">
-        <v>-3125.484990228428</v>
+        <v>3981440.311762895</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>23.62072695887996</v>
+        <v>1116398.531989665</v>
       </c>
       <c r="G52">
-        <v>675.7681502446454</v>
+        <v>4841840.279297489</v>
       </c>
       <c r="H52">
-        <v>1593.409002909945</v>
+        <v>3986340.08822114</v>
       </c>
       <c r="I52">
-        <v>754.8854076839415</v>
+        <v>1117714.284755145</v>
       </c>
       <c r="J52">
-        <v>-145.7826502278529</v>
+        <v>4840789.018361175</v>
       </c>
       <c r="K52">
-        <v>-3593.416856652783</v>
+        <v>3981001.823510884</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>23.35083630552367</v>
+        <v>1116398.103223026</v>
       </c>
       <c r="G53">
-        <v>694.0597908538266</v>
+        <v>4841856.792136019</v>
       </c>
       <c r="H53">
-        <v>1598.979613446255</v>
+        <v>3986346.975490618</v>
       </c>
       <c r="I53">
-        <v>810.5263223073009</v>
+        <v>1117814.221176151</v>
       </c>
       <c r="J53">
-        <v>-162.1786165587545</v>
+        <v>4840740.366789792</v>
       </c>
       <c r="K53">
-        <v>-4077.514581415556</v>
+        <v>3980548.186602682</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>23.08998899784078</v>
+        <v>1116397.688823261</v>
       </c>
       <c r="G54">
-        <v>712.3514314630078</v>
+        <v>4841873.304974549</v>
       </c>
       <c r="H54">
-        <v>1604.425201234844</v>
+        <v>3986353.708187209</v>
       </c>
       <c r="I54">
-        <v>867.5373432645588</v>
+        <v>1117916.618439585</v>
       </c>
       <c r="J54">
-        <v>-178.5745828896563</v>
+        <v>4840691.715218409</v>
       </c>
       <c r="K54">
-        <v>-4577.778164516752</v>
+        <v>3980079.40103829</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,28 +2329,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G55">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H55">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I55">
-        <v>-1517.750150330441</v>
+        <v>1114860.395428621</v>
       </c>
       <c r="J55">
-        <v>2198.439059920894</v>
+        <v>4843216.105591045</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.551925039</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,28 +2364,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G56">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H56">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I56">
-        <v>-1487.785720992956</v>
+        <v>1114890.009399531</v>
       </c>
       <c r="J56">
-        <v>2144.960283969065</v>
+        <v>4843167.454074825</v>
       </c>
       <c r="K56">
-        <v>424.9219135938169</v>
+        <v>3984667.347400881</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,28 +2399,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G57">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H57">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I57">
-        <v>-1457.083445149804</v>
+        <v>1114920.352587231</v>
       </c>
       <c r="J57">
-        <v>2091.481508017236</v>
+        <v>4843118.802558604</v>
       </c>
       <c r="K57">
-        <v>828.655272803719</v>
+        <v>3984955.994241749</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,28 +2434,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G58">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H58">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I58">
-        <v>-1425.625154009591</v>
+        <v>1114951.442948013</v>
       </c>
       <c r="J58">
-        <v>2038.002732065406</v>
+        <v>4843070.151042383</v>
       </c>
       <c r="K58">
-        <v>1211.200077629709</v>
+        <v>3985229.492447643</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,28 +2469,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G59">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H59">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I59">
-        <v>-1393.392231391147</v>
+        <v>1114983.298880326</v>
       </c>
       <c r="J59">
-        <v>1984.523956113577</v>
+        <v>4843021.499526164</v>
       </c>
       <c r="K59">
-        <v>1572.556328071785</v>
+        <v>3985487.842018563</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,28 +2504,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G60">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H60">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I60">
-        <v>-1360.365602706969</v>
+        <v>1115015.939235665</v>
       </c>
       <c r="J60">
-        <v>1931.045180161748</v>
+        <v>4842972.848009943</v>
       </c>
       <c r="K60">
-        <v>1912.724024129949</v>
+        <v>3985731.04295451</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,28 +2539,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G61">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H61">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I61">
-        <v>-1326.525723675384</v>
+        <v>1115049.383329727</v>
       </c>
       <c r="J61">
-        <v>1877.566404209919</v>
+        <v>4842924.196493722</v>
       </c>
       <c r="K61">
-        <v>2231.703165804199</v>
+        <v>3985959.095255482</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,28 +2574,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G62">
-        <v>-164.2964374003252</v>
+        <v>4841118.865123596</v>
       </c>
       <c r="H62">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I62">
-        <v>-1291.852568754765</v>
+        <v>1115083.650953836</v>
       </c>
       <c r="J62">
-        <v>1824.08762825809</v>
+        <v>4842875.544977502</v>
       </c>
       <c r="K62">
-        <v>2529.493753094537</v>
+        <v>3986171.99892148</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,28 +2609,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>209.7170163226885</v>
+        <v>1116579.041481362</v>
       </c>
       <c r="G63">
-        <v>-137.1664709450714</v>
+        <v>4841135.37792337</v>
       </c>
       <c r="H63">
-        <v>1044.640480984045</v>
+        <v>3985224.6766301</v>
       </c>
       <c r="I63">
-        <v>-1256.325619292943</v>
+        <v>1115118.762386663</v>
       </c>
       <c r="J63">
-        <v>1770.608852306261</v>
+        <v>4842826.893461281</v>
       </c>
       <c r="K63">
-        <v>2806.09578600096</v>
+        <v>3986369.753952504</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,28 +2644,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>162.7648695108501</v>
+        <v>1116530.360894152</v>
       </c>
       <c r="G64">
-        <v>-110.0365044898175</v>
+        <v>4841151.890723145</v>
       </c>
       <c r="H64">
-        <v>1286.990043128239</v>
+        <v>3985423.930854295</v>
       </c>
       <c r="I64">
-        <v>-1219.923851384817</v>
+        <v>1115154.738406222</v>
       </c>
       <c r="J64">
-        <v>1717.130076354431</v>
+        <v>4842778.241945062</v>
       </c>
       <c r="K64">
-        <v>3061.509264523469</v>
+        <v>3986552.360348555</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,28 +2679,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>135.1828386328374</v>
+        <v>1116501.763491249</v>
       </c>
       <c r="G65">
-        <v>-82.90653803456374</v>
+        <v>4841168.403522919</v>
       </c>
       <c r="H65">
-        <v>1431.345836568466</v>
+        <v>3985542.616860473</v>
       </c>
       <c r="I65">
-        <v>-1182.625723430967</v>
+        <v>1115191.600302165</v>
       </c>
       <c r="J65">
-        <v>1663.651300402602</v>
+        <v>4842729.59042884</v>
       </c>
       <c r="K65">
-        <v>3295.734188662067</v>
+        <v>3986719.818109632</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,28 +2714,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>117.7710372224702</v>
+        <v>1116483.710712524</v>
       </c>
       <c r="G66">
-        <v>-55.77657157930991</v>
+        <v>4841184.916322694</v>
       </c>
       <c r="H66">
-        <v>1534.507165505106</v>
+        <v>3985627.433727408</v>
       </c>
       <c r="I66">
-        <v>-1144.409163389901</v>
+        <v>1115229.369888384</v>
       </c>
       <c r="J66">
-        <v>1610.172524450773</v>
+        <v>4842680.938912621</v>
       </c>
       <c r="K66">
-        <v>3508.770558416752</v>
+        <v>3986872.127235734</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,28 +2749,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>105.6281175975314</v>
+        <v>1116471.120777923</v>
       </c>
       <c r="G67">
-        <v>-28.64660512405608</v>
+        <v>4841201.429122468</v>
       </c>
       <c r="H67">
-        <v>1614.838837079345</v>
+        <v>3985693.48057625</v>
       </c>
       <c r="I67">
-        <v>-1105.251555716415</v>
+        <v>1115268.069515916</v>
       </c>
       <c r="J67">
-        <v>1556.693748498944</v>
+        <v>4842632.2873964</v>
       </c>
       <c r="K67">
-        <v>3700.618373787523</v>
+        <v>3987009.287726862</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,28 +2784,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>96.56913591837437</v>
+        <v>1116461.728309684</v>
       </c>
       <c r="G68">
-        <v>-1.516638668802278</v>
+        <v>4841217.941922242</v>
       </c>
       <c r="H68">
-        <v>1680.636707191069</v>
+        <v>3985747.578068512</v>
       </c>
       <c r="I68">
-        <v>-1065.129727978308</v>
+        <v>1115307.722086172</v>
       </c>
       <c r="J68">
-        <v>1503.214972547114</v>
+        <v>4842583.63588018</v>
       </c>
       <c r="K68">
-        <v>3871.27763477438</v>
+        <v>3987131.299583017</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,28 +2819,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>89.48627729456042</v>
+        <v>1116454.384711141</v>
       </c>
       <c r="G69">
-        <v>25.61332778645155</v>
+        <v>4841234.454722016</v>
       </c>
       <c r="H69">
-        <v>1736.362700163972</v>
+        <v>3985793.394695532</v>
       </c>
       <c r="I69">
-        <v>-1024.019937143554</v>
+        <v>1115348.351064492</v>
       </c>
       <c r="J69">
-        <v>1449.736196595285</v>
+        <v>4842534.984363959</v>
       </c>
       <c r="K69">
-        <v>4020.748341377325</v>
+        <v>3987238.162804198</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,28 +2854,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>83.75572894804809</v>
+        <v>1116448.443205215</v>
       </c>
       <c r="G70">
-        <v>52.74329424170538</v>
+        <v>4841250.96752179</v>
       </c>
       <c r="H70">
-        <v>1784.694849852113</v>
+        <v>3985833.132275021</v>
       </c>
       <c r="I70">
-        <v>-981.8978555298083</v>
+        <v>1115389.980494025</v>
       </c>
       <c r="J70">
-        <v>1396.257420643456</v>
+        <v>4842486.332847739</v>
       </c>
       <c r="K70">
-        <v>4149.030493596356</v>
+        <v>3987329.877390404</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,28 +2889,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>78.99733191167695</v>
+        <v>1116443.509638218</v>
       </c>
       <c r="G71">
-        <v>79.87326069695918</v>
+        <v>4841267.480321565</v>
       </c>
       <c r="H71">
-        <v>1827.367355381774</v>
+        <v>3985868.216625529</v>
       </c>
       <c r="I71">
-        <v>-938.7385564079292</v>
+        <v>1115432.635009961</v>
       </c>
       <c r="J71">
-        <v>1342.778644691627</v>
+        <v>4842437.681331518</v>
       </c>
       <c r="K71">
-        <v>4256.124091431475</v>
+        <v>3987406.443341637</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,28 +2924,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>74.96494844824456</v>
+        <v>1116439.328811394</v>
       </c>
       <c r="G72">
-        <v>107.003227152213</v>
+        <v>4841283.993121339</v>
       </c>
       <c r="H72">
-        <v>1865.567834771263</v>
+        <v>3985899.624179218</v>
       </c>
       <c r="I72">
-        <v>-894.5164992510005</v>
+        <v>1115476.339854111</v>
       </c>
       <c r="J72">
-        <v>1289.299868739798</v>
+        <v>4842389.029815299</v>
       </c>
       <c r="K72">
-        <v>4342.02913488268</v>
+        <v>3987467.860657896</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,28 +2959,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>71.49144349530529</v>
+        <v>1116435.727436968</v>
       </c>
       <c r="G73">
-        <v>134.1331936074668</v>
+        <v>4841300.505921113</v>
       </c>
       <c r="H73">
-        <v>1900.145335715096</v>
+        <v>3985928.053003533</v>
       </c>
       <c r="I73">
-        <v>-849.205514620129</v>
+        <v>1115521.120889841</v>
       </c>
       <c r="J73">
-        <v>1235.821092787969</v>
+        <v>4842340.378299077</v>
       </c>
       <c r="K73">
-        <v>4406.745623949971</v>
+        <v>3987514.129339181</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,28 +2994,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>68.45889418936397</v>
+        <v>1116432.583251004</v>
       </c>
       <c r="G74">
-        <v>161.2631600627207</v>
+        <v>4841317.018720888</v>
       </c>
       <c r="H74">
-        <v>1931.727934693918</v>
+        <v>3985954.019488482</v>
       </c>
       <c r="I74">
-        <v>-802.7787886780641</v>
+        <v>1115567.004617378</v>
       </c>
       <c r="J74">
-        <v>1182.342316836139</v>
+        <v>4842291.726782857</v>
       </c>
       <c r="K74">
-        <v>4450.273558633349</v>
+        <v>3987545.249385492</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,28 +3029,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>65.78143977242831</v>
+        <v>1116429.80723197</v>
       </c>
       <c r="G75">
-        <v>188.3931265179745</v>
+        <v>4841333.531520662</v>
       </c>
       <c r="H75">
-        <v>1960.793332288632</v>
+        <v>3985977.916388469</v>
       </c>
       <c r="I75">
-        <v>-755.2088473214802</v>
+        <v>1115614.018189492</v>
       </c>
       <c r="J75">
-        <v>1128.86354088431</v>
+        <v>4842243.075266637</v>
       </c>
       <c r="K75">
-        <v>4472.612938932815</v>
+        <v>3987561.220796829</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,28 +3064,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>63.39489901450066</v>
+        <v>1116427.332835944</v>
       </c>
       <c r="G76">
-        <v>215.5230929732283</v>
+        <v>4841350.044320436</v>
       </c>
       <c r="H76">
-        <v>1987.713329872197</v>
+        <v>3986000.049390017</v>
       </c>
       <c r="I76">
-        <v>-706.467539922534</v>
+        <v>1115662.189427569</v>
       </c>
       <c r="J76">
-        <v>1075.384764932481</v>
+        <v>4842194.423750416</v>
       </c>
       <c r="K76">
-        <v>4473.763764848367</v>
+        <v>3987562.043573192</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,28 +3099,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>61.25021523950895</v>
+        <v>1116425.109200336</v>
       </c>
       <c r="G77">
-        <v>242.6530594284822</v>
+        <v>4841366.557120211</v>
       </c>
       <c r="H77">
-        <v>2012.782988888995</v>
+        <v>3986020.661085841</v>
       </c>
       <c r="I77">
-        <v>-656.5260226700696</v>
+        <v>1115711.546838067</v>
       </c>
       <c r="J77">
-        <v>1021.905988980652</v>
+        <v>4842145.772234196</v>
       </c>
       <c r="K77">
-        <v>4453.726036380006</v>
+        <v>3987547.717714581</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,28 +3134,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>59.30916825614555</v>
+        <v>1116423.096697961</v>
       </c>
       <c r="G78">
-        <v>269.7830258837359</v>
+        <v>4841383.069919985</v>
       </c>
       <c r="H78">
-        <v>2036.240397054602</v>
+        <v>3986039.947226177</v>
       </c>
       <c r="I78">
-        <v>-605.3547415006161</v>
+        <v>1115762.11962939</v>
       </c>
       <c r="J78">
-        <v>968.4272130288227</v>
+        <v>4842097.120717975</v>
       </c>
       <c r="K78">
-        <v>4412.499753527732</v>
+        <v>3987518.243220996</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,28 +3169,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>57.54148254260356</v>
+        <v>1116421.263938771</v>
       </c>
       <c r="G79">
-        <v>296.9129923389898</v>
+        <v>4841399.582719759</v>
       </c>
       <c r="H79">
-        <v>2058.280453687738</v>
+        <v>3986058.06805275</v>
       </c>
       <c r="I79">
-        <v>-552.9234146090805</v>
+        <v>1115813.937729173</v>
       </c>
       <c r="J79">
-        <v>914.9484370769934</v>
+        <v>4842048.469201756</v>
       </c>
       <c r="K79">
-        <v>4350.084916291544</v>
+        <v>3987473.620092437</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,28 +3204,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>55.92282494263675</v>
+        <v>1116419.585693839</v>
       </c>
       <c r="G80">
-        <v>324.0429587942436</v>
+        <v>4841416.095519533</v>
       </c>
       <c r="H80">
-        <v>2079.064722437882</v>
+        <v>3986075.156399469</v>
       </c>
       <c r="I80">
-        <v>-499.2010145287773</v>
+        <v>1115867.031801991</v>
       </c>
       <c r="J80">
-        <v>861.4696611251641</v>
+        <v>4841999.817685534</v>
       </c>
       <c r="K80">
-        <v>4266.481524671443</v>
+        <v>3987413.848328904</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,28 +3239,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>54.43338592159956</v>
+        <v>1116418.041424384</v>
       </c>
       <c r="G81">
-        <v>351.1729252494974</v>
+        <v>4841432.608319308</v>
       </c>
       <c r="H81">
-        <v>2098.728625297201</v>
+        <v>3986091.323607176</v>
       </c>
       <c r="I81">
-        <v>-444.1557497701987</v>
+        <v>1115921.433267507</v>
       </c>
       <c r="J81">
-        <v>807.9908851733351</v>
+        <v>4841951.166169314</v>
       </c>
       <c r="K81">
-        <v>4161.689578667429</v>
+        <v>3987338.927930397</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,28 +3274,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>53.05685365421778</v>
+        <v>1116416.614218098</v>
       </c>
       <c r="G82">
-        <v>378.3028917047513</v>
+        <v>4841449.121119082</v>
       </c>
       <c r="H82">
-        <v>2117.386794920777</v>
+        <v>3986106.663924197</v>
       </c>
       <c r="I82">
-        <v>-387.7550460076544</v>
+        <v>1115977.174319064</v>
       </c>
       <c r="J82">
-        <v>754.5121092215057</v>
+        <v>4841902.514653094</v>
       </c>
       <c r="K82">
-        <v>4035.709078279502</v>
+        <v>3987248.858896917</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,28 +3309,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>51.77965864781385</v>
+        <v>1116415.290005956</v>
       </c>
       <c r="G83">
-        <v>405.432858160005</v>
+        <v>4841465.633918856</v>
       </c>
       <c r="H83">
-        <v>2135.137123578928</v>
+        <v>3986121.257835301</v>
       </c>
       <c r="I83">
-        <v>-329.9655268026536</v>
+        <v>1116034.287942733</v>
       </c>
       <c r="J83">
-        <v>701.0333332696765</v>
+        <v>4841853.863136874</v>
       </c>
       <c r="K83">
-        <v>3888.540023507661</v>
+        <v>3987143.641228462</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,28 +3344,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>50.59040849915834</v>
+        <v>1116414.056976169</v>
       </c>
       <c r="G84">
-        <v>432.5628246152589</v>
+        <v>4841482.146718631</v>
       </c>
       <c r="H84">
-        <v>2152.063871985496</v>
+        <v>3986135.174617704</v>
       </c>
       <c r="I84">
-        <v>-270.7529938526127</v>
+        <v>1116092.807936843</v>
       </c>
       <c r="J84">
-        <v>647.5545573178474</v>
+        <v>4841805.211620652</v>
       </c>
       <c r="K84">
-        <v>3720.182414351909</v>
+        <v>3987023.274925034</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,28 +3379,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>49.47945873273601</v>
+        <v>1116412.905129222</v>
       </c>
       <c r="G85">
-        <v>459.6927910705127</v>
+        <v>4841498.659518405</v>
       </c>
       <c r="H85">
-        <v>2168.240088362884</v>
+        <v>3986148.474329972</v>
       </c>
       <c r="I85">
-        <v>-210.0824067532085</v>
+        <v>1116152.768931969</v>
       </c>
       <c r="J85">
-        <v>594.0757813660182</v>
+        <v>4841756.560104433</v>
       </c>
       <c r="K85">
-        <v>3530.636250812241</v>
+        <v>3986887.759986631</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,28 +3414,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>48.43858264614471</v>
+        <v>1116411.825935563</v>
       </c>
       <c r="G86">
-        <v>486.8227575257665</v>
+        <v>4841515.172318179</v>
       </c>
       <c r="H86">
-        <v>2183.72951361449</v>
+        <v>3986161.209378405</v>
       </c>
       <c r="I86">
-        <v>-147.9178622623978</v>
+        <v>1116214.206411438</v>
       </c>
       <c r="J86">
-        <v>540.5970054141891</v>
+        <v>4841707.908588212</v>
       </c>
       <c r="K86">
-        <v>3319.901532888662</v>
+        <v>3986737.096413254</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,28 +3449,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>47.46071426837727</v>
+        <v>1116410.812069103</v>
       </c>
       <c r="G87">
-        <v>513.9527239810203</v>
+        <v>4841531.685117953</v>
       </c>
       <c r="H87">
-        <v>2198.588098284978</v>
+        <v>3986173.425764253</v>
       </c>
       <c r="I87">
-        <v>-84.22257305383309</v>
+        <v>1116277.156732316</v>
       </c>
       <c r="J87">
-        <v>487.1182294623599</v>
+        <v>4841659.257071992</v>
       </c>
       <c r="K87">
-        <v>3087.978260581169</v>
+        <v>3986571.284204904</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,28 +3484,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>46.53974604527046</v>
+        <v>1116409.857197454</v>
       </c>
       <c r="G88">
-        <v>541.0826904362742</v>
+        <v>4841548.197917728</v>
       </c>
       <c r="H88">
-        <v>2212.865222528915</v>
+        <v>3986185.164086739</v>
       </c>
       <c r="I88">
-        <v>-18.95884594709931</v>
+        <v>1116341.657146934</v>
       </c>
       <c r="J88">
-        <v>433.6394535105305</v>
+        <v>4841610.605555771</v>
       </c>
       <c r="K88">
-        <v>2834.866433889762</v>
+        <v>3986390.323361579</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,28 +3519,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>45.6703680002683</v>
+        <v>1116408.955815161</v>
       </c>
       <c r="G89">
-        <v>568.212656891528</v>
+        <v>4841564.710717502</v>
       </c>
       <c r="H89">
-        <v>2226.604686240848</v>
+        <v>3986196.460357129</v>
       </c>
       <c r="I89">
-        <v>47.91194039810998</v>
+        <v>1116407.745824922</v>
       </c>
       <c r="J89">
-        <v>380.1606775587015</v>
+        <v>4841561.95403955</v>
       </c>
       <c r="K89">
-        <v>2560.566052814443</v>
+        <v>3986194.213883281</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,28 +3554,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>44.84793868679886</v>
+        <v>1116408.103109914</v>
       </c>
       <c r="G90">
-        <v>595.3426233467818</v>
+        <v>4841581.223517276</v>
       </c>
       <c r="H90">
-        <v>2239.845519426617</v>
+        <v>3986207.346664993</v>
       </c>
       <c r="I90">
-        <v>116.4293583370746</v>
+        <v>1116475.461875805</v>
       </c>
       <c r="J90">
-        <v>326.6819016068722</v>
+        <v>4841513.302523331</v>
       </c>
       <c r="K90">
-        <v>2265.07711735521</v>
+        <v>3985982.955770009</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,28 +3589,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>44.0683807659809</v>
+        <v>1116407.294854277</v>
       </c>
       <c r="G91">
-        <v>622.4725898020357</v>
+        <v>4841597.736317051</v>
       </c>
       <c r="H91">
-        <v>2252.622650610005</v>
+        <v>3986217.851727758</v>
       </c>
       <c r="I91">
-        <v>186.6339546579181</v>
+        <v>1116544.845372143</v>
       </c>
       <c r="J91">
-        <v>273.2031256550432</v>
+        <v>4841464.65100711</v>
       </c>
       <c r="K91">
-        <v>1948.399627512065</v>
+        <v>3985756.549021763</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,28 +3624,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>43.32809584420004</v>
+        <v>1116406.527317388</v>
       </c>
       <c r="G92">
-        <v>649.6025562572895</v>
+        <v>4841614.249116825</v>
       </c>
       <c r="H92">
-        <v>2264.967462111236</v>
+        <v>3986228.001347244</v>
       </c>
       <c r="I92">
-        <v>258.5672745761174</v>
+        <v>1116615.937373247</v>
       </c>
       <c r="J92">
-        <v>219.7243497032139</v>
+        <v>4841415.99949089</v>
       </c>
       <c r="K92">
-        <v>1610.533583285005</v>
+        <v>3985514.993638542</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,28 +3659,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>42.62389450983151</v>
+        <v>1116405.797192425</v>
       </c>
       <c r="G93">
-        <v>676.7325227125433</v>
+        <v>4841630.761916599</v>
       </c>
       <c r="H93">
-        <v>2276.908254423432</v>
+        <v>3986237.818791466</v>
       </c>
       <c r="I93">
-        <v>332.2718863198621</v>
+        <v>1116688.779949475</v>
       </c>
       <c r="J93">
-        <v>166.2455737513846</v>
+        <v>4841367.347974669</v>
       </c>
       <c r="K93">
-        <v>1251.478984674033</v>
+        <v>3985258.289620348</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,28 +3694,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>41.95293846493875</v>
+        <v>1116405.101536603</v>
       </c>
       <c r="G94">
-        <v>703.8624891677971</v>
+        <v>4841647.274716374</v>
       </c>
       <c r="H94">
-        <v>2288.470636979701</v>
+        <v>3986247.325115907</v>
       </c>
       <c r="I94">
-        <v>407.7914063207959</v>
+        <v>1116763.416207128</v>
       </c>
       <c r="J94">
-        <v>112.7667977995556</v>
+        <v>4841318.696458449</v>
       </c>
       <c r="K94">
-        <v>871.2358316791475</v>
+        <v>3984986.43696718</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,28 +3729,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>41.31269235680925</v>
+        <v>1116404.437721238</v>
       </c>
       <c r="G95">
-        <v>730.9924556230509</v>
+        <v>4841663.787516148</v>
       </c>
       <c r="H95">
-        <v>2299.677858883268</v>
+        <v>3986256.539435447</v>
       </c>
       <c r="I95">
-        <v>485.1705250250699</v>
+        <v>1116839.890313962</v>
       </c>
       <c r="J95">
-        <v>59.28802184772629</v>
+        <v>4841270.044942229</v>
       </c>
       <c r="K95">
-        <v>469.8041243003482</v>
+        <v>3984699.435679038</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,28 +3764,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>40.70088344514043</v>
+        <v>1116403.803389921</v>
       </c>
       <c r="G96">
-        <v>758.1224220783048</v>
+        <v>4841680.300315922</v>
       </c>
       <c r="H96">
-        <v>2310.551090340267</v>
+        <v>3986265.479155739</v>
       </c>
       <c r="I96">
-        <v>564.4550333399521</v>
+        <v>1116918.247525322</v>
       </c>
       <c r="J96">
-        <v>5.809245895897001</v>
+        <v>4841221.393426008</v>
       </c>
       <c r="K96">
-        <v>47.18386253763594</v>
+        <v>3984397.285755922</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,28 +3799,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>40.11546764211306</v>
+        <v>1116403.196423318</v>
       </c>
       <c r="G97">
-        <v>785.2523885335586</v>
+        <v>4841696.813115696</v>
       </c>
       <c r="H97">
-        <v>2321.109663358214</v>
+        <v>3986274.160171114</v>
       </c>
       <c r="I97">
-        <v>645.6918497316775</v>
+        <v>1116998.534210925</v>
       </c>
       <c r="J97">
-        <v>-47.66953005593204</v>
+        <v>4841172.741909787</v>
       </c>
       <c r="K97">
-        <v>-396.6249536089882</v>
+        <v>3984079.987197832</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,28 +3834,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>39.5546007688025</v>
+        <v>1116402.61490936</v>
       </c>
       <c r="G98">
-        <v>812.3823549888124</v>
+        <v>4841713.325915471</v>
       </c>
       <c r="H98">
-        <v>2331.371278586584</v>
+        <v>3986282.59703464</v>
       </c>
       <c r="I98">
-        <v>728.9290479905488</v>
+        <v>1117080.797882298</v>
       </c>
       <c r="J98">
-        <v>-101.1483060077613</v>
+        <v>4841124.090393567</v>
       </c>
       <c r="K98">
-        <v>-861.6223241395269</v>
+        <v>3983747.540004768</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,28 +3869,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>39.01661410692733</v>
+        <v>1116402.057117898</v>
       </c>
       <c r="G99">
-        <v>839.5123214440663</v>
+        <v>4841729.838715245</v>
       </c>
       <c r="H99">
-        <v>2341.352183858609</v>
+        <v>3986290.80310491</v>
       </c>
       <c r="I99">
-        <v>814.2158856797271</v>
+        <v>1117165.087220897</v>
       </c>
       <c r="J99">
-        <v>-154.6270819595906</v>
+        <v>4841075.438877346</v>
       </c>
       <c r="K99">
-        <v>-1347.80824905398</v>
+        <v>3983399.94417673</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,28 +3904,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>38.49999350756869</v>
+        <v>1116401.521479044</v>
       </c>
       <c r="G100">
-        <v>866.6422878993201</v>
+        <v>4841746.351515019</v>
       </c>
       <c r="H100">
-        <v>2351.067328956838</v>
+        <v>3986298.79067329</v>
       </c>
       <c r="I100">
-        <v>901.6028332845493</v>
+        <v>1117251.452106915</v>
       </c>
       <c r="J100">
-        <v>-208.1058579114199</v>
+        <v>4841026.787361126</v>
       </c>
       <c r="K100">
-        <v>-1855.182728352345</v>
+        <v>3983037.199713719</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,28 +3939,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>38.00336146114161</v>
+        <v>1116401.006564577</v>
       </c>
       <c r="G101">
-        <v>893.7722543545738</v>
+        <v>4841762.864314794</v>
       </c>
       <c r="H101">
-        <v>2360.530500303607</v>
+        <v>3986306.571074659</v>
       </c>
       <c r="I101">
-        <v>991.1416040796222</v>
+        <v>1117339.943648796</v>
       </c>
       <c r="J101">
-        <v>-261.5846338632487</v>
+        <v>4840978.135844906</v>
       </c>
       <c r="K101">
-        <v>-2383.74576203462</v>
+        <v>3982659.306615733</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,28 +3974,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>37.52546164510886</v>
+        <v>1116400.511071926</v>
       </c>
       <c r="G102">
-        <v>920.9022208098278</v>
+        <v>4841779.377114568</v>
       </c>
       <c r="H102">
-        <v>2369.754438622366</v>
+        <v>3986314.154784146</v>
       </c>
       <c r="I102">
-        <v>1082.885184731366</v>
+        <v>1117430.614213486</v>
       </c>
       <c r="J102">
-        <v>-315.063409815078</v>
+        <v>4840929.484328685</v>
       </c>
       <c r="K102">
-        <v>-2933.497350100811</v>
+        <v>3982266.264882773</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,28 +4009,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>37.06514555477135</v>
+        <v>1116400.033810308</v>
       </c>
       <c r="G103">
-        <v>948.0321872650815</v>
+        <v>4841795.889914342</v>
       </c>
       <c r="H103">
-        <v>2378.750942089889</v>
+        <v>3986321.551501941</v>
       </c>
       <c r="I103">
-        <v>1176.887866654112</v>
+        <v>1117523.517457416</v>
       </c>
       <c r="J103">
-        <v>-368.5421857669073</v>
+        <v>4840880.832812465</v>
       </c>
       <c r="K103">
-        <v>-3504.437492550917</v>
+        <v>3981858.074514839</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,28 +4044,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>36.62136089325786</v>
+        <v>1116399.573688686</v>
       </c>
       <c r="G104">
-        <v>975.1621537203353</v>
+        <v>4841812.402714116</v>
       </c>
       <c r="H104">
-        <v>2387.530957074795</v>
+        <v>3986328.770227895</v>
       </c>
       <c r="I104">
-        <v>1273.205278138324</v>
+        <v>1117618.708358258</v>
       </c>
       <c r="J104">
-        <v>-422.0209617187365</v>
+        <v>4840832.181296244</v>
       </c>
       <c r="K104">
-        <v>-4096.566189384936</v>
+        <v>3981434.735511932</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,28 +4079,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>36.19314145357592</v>
+        <v>1116399.129705286</v>
       </c>
       <c r="G105">
-        <v>1002.292120175589</v>
+        <v>4841828.915513891</v>
       </c>
       <c r="H105">
-        <v>2396.104658213002</v>
+        <v>3986335.81932736</v>
       </c>
       <c r="I105">
-        <v>1371.894417269942</v>
+        <v>1117716.243247459</v>
       </c>
       <c r="J105">
-        <v>-475.4997376705658</v>
+        <v>4840783.529780025</v>
       </c>
       <c r="K105">
-        <v>-4709.883440602866</v>
+        <v>3980996.24787405</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,28 +4114,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>35.77959827131369</v>
+        <v>1116398.700938418</v>
       </c>
       <c r="G106">
-        <v>1029.422086630843</v>
+        <v>4841845.428313665</v>
       </c>
       <c r="H106">
-        <v>2404.481519289327</v>
+        <v>3986342.706589462</v>
       </c>
       <c r="I106">
-        <v>1473.01368566033</v>
+        <v>1117816.179843576</v>
       </c>
       <c r="J106">
-        <v>-528.9785136223946</v>
+        <v>4840734.878263804</v>
       </c>
       <c r="K106">
-        <v>-5344.389246204706</v>
+        <v>3980542.611601195</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,1883 +4149,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>35.37991186364358</v>
+        <v>1116398.286538431</v>
       </c>
       <c r="G107">
-        <v>1056.552053086097</v>
+        <v>4841861.941113439</v>
       </c>
       <c r="H107">
-        <v>2412.670376163563</v>
+        <v>3986349.439278843</v>
       </c>
       <c r="I107">
-        <v>1576.622923006812</v>
+        <v>1117918.577286433</v>
       </c>
       <c r="J107">
-        <v>-582.4572895742239</v>
+        <v>4840686.226747583</v>
       </c>
       <c r="K107">
-        <v>-6000.083606190465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>38</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G108">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H108">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I108">
-        <v>-1618.256008445635</v>
-      </c>
-      <c r="J108">
-        <v>2282.458783570358</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>38</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G109">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H109">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I109">
-        <v>-1586.307325848256</v>
-      </c>
-      <c r="J109">
-        <v>2226.93616111921</v>
-      </c>
-      <c r="K109">
-        <v>318.7686712660771</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>38</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G110">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H110">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I110">
-        <v>-1553.571936334167</v>
-      </c>
-      <c r="J110">
-        <v>2171.413538668063</v>
-      </c>
-      <c r="K110">
-        <v>621.6420753996947</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>38</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G111">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H111">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I111">
-        <v>-1520.030467969299</v>
-      </c>
-      <c r="J111">
-        <v>2115.890916216915</v>
-      </c>
-      <c r="K111">
-        <v>908.6202124008552</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>38</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G112">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H112">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I112">
-        <v>-1485.663071803531</v>
-      </c>
-      <c r="J112">
-        <v>2060.368293765768</v>
-      </c>
-      <c r="K112">
-        <v>1179.703082269556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>38</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G113">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H113">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I113">
-        <v>-1450.449410124606</v>
-      </c>
-      <c r="J113">
-        <v>2004.84567131462</v>
-      </c>
-      <c r="K113">
-        <v>1434.890685005801</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>38</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G114">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H114">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I114">
-        <v>-1414.368644422812</v>
-      </c>
-      <c r="J114">
-        <v>1949.323048863472</v>
-      </c>
-      <c r="K114">
-        <v>1674.183020609587</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>38</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G115">
-        <v>-85.56935382940449</v>
-      </c>
-      <c r="H115">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I115">
-        <v>-1377.399423059307</v>
-      </c>
-      <c r="J115">
-        <v>1893.800426412324</v>
-      </c>
-      <c r="K115">
-        <v>1897.580089080915</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>38</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>227.1272767738456</v>
-      </c>
-      <c r="G116">
-        <v>-71.43944489332129</v>
-      </c>
-      <c r="H116">
-        <v>905.5495298985123</v>
-      </c>
-      <c r="I116">
-        <v>-1339.519868630786</v>
-      </c>
-      <c r="J116">
-        <v>1838.277803961177</v>
-      </c>
-      <c r="K116">
-        <v>2105.081890419784</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>38</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>176.2772626402765</v>
-      </c>
-      <c r="G117">
-        <v>-57.30953595723809</v>
-      </c>
-      <c r="H117">
-        <v>1115.630927341636</v>
-      </c>
-      <c r="I117">
-        <v>-1300.707565023013</v>
-      </c>
-      <c r="J117">
-        <v>1782.755181510029</v>
-      </c>
-      <c r="K117">
-        <v>2296.688424626194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>38</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>146.4054302488799</v>
-      </c>
-      <c r="G118">
-        <v>-43.17962702115489</v>
-      </c>
-      <c r="H118">
-        <v>1240.766151629312</v>
-      </c>
-      <c r="I118">
-        <v>-1260.939544145564</v>
-      </c>
-      <c r="J118">
-        <v>1727.232559058882</v>
-      </c>
-      <c r="K118">
-        <v>2472.399691700148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>38</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>127.5481381349263</v>
-      </c>
-      <c r="G119">
-        <v>-29.04971808507169</v>
-      </c>
-      <c r="H119">
-        <v>1330.191838861231</v>
-      </c>
-      <c r="I119">
-        <v>-1220.192272339916</v>
-      </c>
-      <c r="J119">
-        <v>1671.709936607734</v>
-      </c>
-      <c r="K119">
-        <v>2632.215691641643</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>38</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>114.3971391608976</v>
-      </c>
-      <c r="G120">
-        <v>-14.91980914898849</v>
-      </c>
-      <c r="H120">
-        <v>1399.827573598879</v>
-      </c>
-      <c r="I120">
-        <v>-1178.441636452856</v>
-      </c>
-      <c r="J120">
-        <v>1616.187314156586</v>
-      </c>
-      <c r="K120">
-        <v>2776.13642445068</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>38</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>104.5861000987874</v>
-      </c>
-      <c r="G121">
-        <v>-0.7899002129052997</v>
-      </c>
-      <c r="H121">
-        <v>1456.86464178895</v>
-      </c>
-      <c r="I121">
-        <v>-1135.662929566959</v>
-      </c>
-      <c r="J121">
-        <v>1560.664691705439</v>
-      </c>
-      <c r="K121">
-        <v>2904.161890127258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>38</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>96.91523762320408</v>
-      </c>
-      <c r="G122">
-        <v>13.3400087231779</v>
-      </c>
-      <c r="H122">
-        <v>1505.170875041757</v>
-      </c>
-      <c r="I122">
-        <v>-1091.830836379685</v>
-      </c>
-      <c r="J122">
-        <v>1505.142069254291</v>
-      </c>
-      <c r="K122">
-        <v>3016.292088671379</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>38</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>90.70895134664599</v>
-      </c>
-      <c r="G123">
-        <v>27.46991765926111</v>
-      </c>
-      <c r="H123">
-        <v>1547.067734512349</v>
-      </c>
-      <c r="I123">
-        <v>-1046.91941822246</v>
-      </c>
-      <c r="J123">
-        <v>1449.619446803143</v>
-      </c>
-      <c r="K123">
-        <v>3112.52702008304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>38</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>85.55552231341598</v>
-      </c>
-      <c r="G124">
-        <v>41.5998265953443</v>
-      </c>
-      <c r="H124">
-        <v>1584.058515575683</v>
-      </c>
-      <c r="I124">
-        <v>-1000.902097710861</v>
-      </c>
-      <c r="J124">
-        <v>1394.096824351996</v>
-      </c>
-      <c r="K124">
-        <v>3192.866684362245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>38</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>81.18837895511042</v>
-      </c>
-      <c r="G125">
-        <v>55.72973553142752</v>
-      </c>
-      <c r="H125">
-        <v>1617.172708240765</v>
-      </c>
-      <c r="I125">
-        <v>-953.751643016822</v>
-      </c>
-      <c r="J125">
-        <v>1338.574201900848</v>
-      </c>
-      <c r="K125">
-        <v>3257.311081508991</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>38</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>77.42651101203589</v>
-      </c>
-      <c r="G126">
-        <v>69.85964446751071</v>
-      </c>
-      <c r="H126">
-        <v>1647.146311882142</v>
-      </c>
-      <c r="I126">
-        <v>-905.4401517535653</v>
-      </c>
-      <c r="J126">
-        <v>1283.0515794497</v>
-      </c>
-      <c r="K126">
-        <v>3305.860211523279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>38</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>74.14220591549065</v>
-      </c>
-      <c r="G127">
-        <v>83.98955340359389</v>
-      </c>
-      <c r="H127">
-        <v>1674.523776358059</v>
-      </c>
-      <c r="I127">
-        <v>-855.9390344637083</v>
-      </c>
-      <c r="J127">
-        <v>1227.528956998553</v>
-      </c>
-      <c r="K127">
-        <v>3338.514074405108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>38</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>71.24247493005171</v>
-      </c>
-      <c r="G128">
-        <v>98.11946233967711</v>
-      </c>
-      <c r="H128">
-        <v>1699.719197756446</v>
-      </c>
-      <c r="I128">
-        <v>-805.218997700781</v>
-      </c>
-      <c r="J128">
-        <v>1172.006334547405</v>
-      </c>
-      <c r="K128">
-        <v>3355.27267015448</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>38</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>68.65780863657434</v>
-      </c>
-      <c r="G129">
-        <v>112.2493712757603</v>
-      </c>
-      <c r="H129">
-        <v>1723.054873139907</v>
-      </c>
-      <c r="I129">
-        <v>-753.2500266941448</v>
-      </c>
-      <c r="J129">
-        <v>1116.483712096257</v>
-      </c>
-      <c r="K129">
-        <v>3356.135998771393</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>38</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>66.33507777812365</v>
-      </c>
-      <c r="G130">
-        <v>126.3792802118435</v>
-      </c>
-      <c r="H130">
-        <v>1744.786577348797</v>
-      </c>
-      <c r="I130">
-        <v>-700.0013675870471</v>
-      </c>
-      <c r="J130">
-        <v>1060.961089645109</v>
-      </c>
-      <c r="K130">
-        <v>3341.104060255848</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>38</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>64.23288920443602</v>
-      </c>
-      <c r="G131">
-        <v>140.5091891479267</v>
-      </c>
-      <c r="H131">
-        <v>1765.120697386912</v>
-      </c>
-      <c r="I131">
-        <v>-645.4415092373048</v>
-      </c>
-      <c r="J131">
-        <v>1005.438467193962</v>
-      </c>
-      <c r="K131">
-        <v>3310.176854607846</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>38</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>62.31845398430558</v>
-      </c>
-      <c r="G132">
-        <v>154.6390980840099</v>
-      </c>
-      <c r="H132">
-        <v>1784.22618227514</v>
-      </c>
-      <c r="I132">
-        <v>-589.5381645698495</v>
-      </c>
-      <c r="J132">
-        <v>949.9158447428143</v>
-      </c>
-      <c r="K132">
-        <v>3263.354381827384</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>38</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>60.56541887463158</v>
-      </c>
-      <c r="G133">
-        <v>168.7690070200931</v>
-      </c>
-      <c r="H133">
-        <v>1802.243083916026</v>
-      </c>
-      <c r="I133">
-        <v>-532.2582514700924</v>
-      </c>
-      <c r="J133">
-        <v>894.3932222916666</v>
-      </c>
-      <c r="K133">
-        <v>3200.636641914465</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>38</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>58.95232979535365</v>
-      </c>
-      <c r="G134">
-        <v>182.8989159561763</v>
-      </c>
-      <c r="H134">
-        <v>1819.288793243174</v>
-      </c>
-      <c r="I134">
-        <v>-473.5678732068078</v>
-      </c>
-      <c r="J134">
-        <v>838.870599840519</v>
-      </c>
-      <c r="K134">
-        <v>3122.023634869087</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>38</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>57.46152074817226</v>
-      </c>
-      <c r="G135">
-        <v>197.0288248922595</v>
-      </c>
-      <c r="H135">
-        <v>1835.462679895049</v>
-      </c>
-      <c r="I135">
-        <v>-413.4322983729471</v>
-      </c>
-      <c r="J135">
-        <v>783.3479773893713</v>
-      </c>
-      <c r="K135">
-        <v>3027.515360691252</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>38</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>56.07829573000144</v>
-      </c>
-      <c r="G136">
-        <v>211.1587338283427</v>
-      </c>
-      <c r="H136">
-        <v>1850.849602060645</v>
-      </c>
-      <c r="I136">
-        <v>-351.8159403325171</v>
-      </c>
-      <c r="J136">
-        <v>727.8253549382235</v>
-      </c>
-      <c r="K136">
-        <v>2917.111819380958</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>38</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>54.79031656453687</v>
-      </c>
-      <c r="G137">
-        <v>225.2886427644259</v>
-      </c>
-      <c r="H137">
-        <v>1865.522601376008</v>
-      </c>
-      <c r="I137">
-        <v>-288.6823361613518</v>
-      </c>
-      <c r="J137">
-        <v>672.302732487076</v>
-      </c>
-      <c r="K137">
-        <v>2790.813010938206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>38</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>53.58713811242789</v>
-      </c>
-      <c r="G138">
-        <v>239.4185517005091</v>
-      </c>
-      <c r="H138">
-        <v>1879.544999897537</v>
-      </c>
-      <c r="I138">
-        <v>-223.9941250693223</v>
-      </c>
-      <c r="J138">
-        <v>616.7801100359283</v>
-      </c>
-      <c r="K138">
-        <v>2648.618935362996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>38</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>52.45985070794406</v>
-      </c>
-      <c r="G139">
-        <v>253.5484606365923</v>
-      </c>
-      <c r="H139">
-        <v>1892.97205160606</v>
-      </c>
-      <c r="I139">
-        <v>-157.7130262912142</v>
-      </c>
-      <c r="J139">
-        <v>561.2574875847808</v>
-      </c>
-      <c r="K139">
-        <v>2490.529592655328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>38</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>51.4008017782004</v>
-      </c>
-      <c r="G140">
-        <v>267.6783695726755</v>
-      </c>
-      <c r="H140">
-        <v>1905.852257388094</v>
-      </c>
-      <c r="I140">
-        <v>-89.79981643318781</v>
-      </c>
-      <c r="J140">
-        <v>505.734865133633</v>
-      </c>
-      <c r="K140">
-        <v>2316.544982815201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>38</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>50.40337673288296</v>
-      </c>
-      <c r="G141">
-        <v>281.8082785087587</v>
-      </c>
-      <c r="H141">
-        <v>1918.228422569077</v>
-      </c>
-      <c r="I141">
-        <v>-20.21430626141529</v>
-      </c>
-      <c r="J141">
-        <v>450.2122426824853</v>
-      </c>
-      <c r="K141">
-        <v>2126.665105842616</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>38</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>49.46182477248084</v>
-      </c>
-      <c r="G142">
-        <v>295.9381874448419</v>
-      </c>
-      <c r="H142">
-        <v>1930.138515210402</v>
-      </c>
-      <c r="I142">
-        <v>51.08468308084183</v>
-      </c>
-      <c r="J142">
-        <v>394.6896202313378</v>
-      </c>
-      <c r="K142">
-        <v>1920.889961737574</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>38</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>48.57111912740396</v>
-      </c>
-      <c r="G143">
-        <v>310.0680963809251</v>
-      </c>
-      <c r="H143">
-        <v>1941.616368582065</v>
-      </c>
-      <c r="I143">
-        <v>124.1393444417845</v>
-      </c>
-      <c r="J143">
-        <v>339.1669977801901</v>
-      </c>
-      <c r="K143">
-        <v>1699.219550500073</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>38</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>47.7268439667731</v>
-      </c>
-      <c r="G144">
-        <v>324.1980053170083</v>
-      </c>
-      <c r="H144">
-        <v>1952.692260572838</v>
-      </c>
-      <c r="I144">
-        <v>198.9929096296849</v>
-      </c>
-      <c r="J144">
-        <v>283.6443753290425</v>
-      </c>
-      <c r="K144">
-        <v>1461.653872130115</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>38</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>46.92510216599278</v>
-      </c>
-      <c r="G145">
-        <v>338.3279142530915</v>
-      </c>
-      <c r="H145">
-        <v>1963.393395034998</v>
-      </c>
-      <c r="I145">
-        <v>275.6896749963194</v>
-      </c>
-      <c r="J145">
-        <v>228.1217528778948</v>
-      </c>
-      <c r="K145">
-        <v>1208.192926627697</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>38</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>46.16243953527172</v>
-      </c>
-      <c r="G146">
-        <v>352.4578231891747</v>
-      </c>
-      <c r="H146">
-        <v>1973.744304330356</v>
-      </c>
-      <c r="I146">
-        <v>354.2750276503776</v>
-      </c>
-      <c r="J146">
-        <v>172.5991304267471</v>
-      </c>
-      <c r="K146">
-        <v>938.8367139928212</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>38</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>45.43578214721811</v>
-      </c>
-      <c r="G147">
-        <v>366.5877321252579</v>
-      </c>
-      <c r="H147">
-        <v>1983.767188067805</v>
-      </c>
-      <c r="I147">
-        <v>434.795472316342</v>
-      </c>
-      <c r="J147">
-        <v>117.0765079755996</v>
-      </c>
-      <c r="K147">
-        <v>653.5852342254881</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>38</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>44.74238416953205</v>
-      </c>
-      <c r="G148">
-        <v>380.7176410613411</v>
-      </c>
-      <c r="H148">
-        <v>1993.482199797662</v>
-      </c>
-      <c r="I148">
-        <v>517.2986588547567</v>
-      </c>
-      <c r="J148">
-        <v>61.55388552445181</v>
-      </c>
-      <c r="K148">
-        <v>352.4384873256959</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>38</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>44.07978418384707</v>
-      </c>
-      <c r="G149">
-        <v>394.8475499974243</v>
-      </c>
-      <c r="H149">
-        <v>2002.907690972471</v>
-      </c>
-      <c r="I149">
-        <v>601.8334104601394</v>
-      </c>
-      <c r="J149">
-        <v>6.031263073304053</v>
-      </c>
-      <c r="K149">
-        <v>35.39647329344584</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>38</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>43.44576840652268</v>
-      </c>
-      <c r="G150">
-        <v>408.9774589335075</v>
-      </c>
-      <c r="H150">
-        <v>2012.06041959715</v>
-      </c>
-      <c r="I150">
-        <v>688.4497525532585</v>
-      </c>
-      <c r="J150">
-        <v>-49.49135937784344</v>
-      </c>
-      <c r="K150">
-        <v>-297.5408078712614</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>38</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>42.83833955882404</v>
-      </c>
-      <c r="G151">
-        <v>423.1073678695907</v>
-      </c>
-      <c r="H151">
-        <v>2020.955729529325</v>
-      </c>
-      <c r="I151">
-        <v>777.1989423848474</v>
-      </c>
-      <c r="J151">
-        <v>-105.0139818289912</v>
-      </c>
-      <c r="K151">
-        <v>-646.3733561684279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>38</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>42.25569038902874</v>
-      </c>
-      <c r="G152">
-        <v>437.237276805674</v>
-      </c>
-      <c r="H152">
-        <v>2029.60770524879</v>
-      </c>
-      <c r="I152">
-        <v>868.1334993682824</v>
-      </c>
-      <c r="J152">
-        <v>-160.536604280139</v>
-      </c>
-      <c r="K152">
-        <v>-1011.101171598053</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>38</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>41.69618104679658</v>
-      </c>
-      <c r="G153">
-        <v>451.3671857417571</v>
-      </c>
-      <c r="H153">
-        <v>2038.029306016462</v>
-      </c>
-      <c r="I153">
-        <v>961.3072361591758</v>
-      </c>
-      <c r="J153">
-        <v>-216.0592267312867</v>
-      </c>
-      <c r="K153">
-        <v>-1391.724254160136</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>38</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>41.15831966462794</v>
-      </c>
-      <c r="G154">
-        <v>465.4970946778403</v>
-      </c>
-      <c r="H154">
-        <v>2046.232482631199</v>
-      </c>
-      <c r="I154">
-        <v>1056.775290500278</v>
-      </c>
-      <c r="J154">
-        <v>-271.5818491824339</v>
-      </c>
-      <c r="K154">
-        <v>-1788.242603854675</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>38</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>40.64074562276181</v>
-      </c>
-      <c r="G155">
-        <v>479.6270036139235</v>
-      </c>
-      <c r="H155">
-        <v>2054.228279424845</v>
-      </c>
-      <c r="I155">
-        <v>1154.594157850532</v>
-      </c>
-      <c r="J155">
-        <v>-327.1044716335817</v>
-      </c>
-      <c r="K155">
-        <v>-2200.656220681673</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>38</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>40.1422150700828</v>
-      </c>
-      <c r="G156">
-        <v>493.7569125500067</v>
-      </c>
-      <c r="H156">
-        <v>2062.026923680016</v>
-      </c>
-      <c r="I156">
-        <v>1254.821724817577</v>
-      </c>
-      <c r="J156">
-        <v>-382.6270940847294</v>
-      </c>
-      <c r="K156">
-        <v>-2628.965104641131</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>38</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>39.66158835027257</v>
-      </c>
-      <c r="G157">
-        <v>507.8868214860898</v>
-      </c>
-      <c r="H157">
-        <v>2069.637904287042</v>
-      </c>
-      <c r="I157">
-        <v>1357.517303413515</v>
-      </c>
-      <c r="J157">
-        <v>-438.1497165358772</v>
-      </c>
-      <c r="K157">
-        <v>-3073.169255733047</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>38</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>39.19781904389006</v>
-      </c>
-      <c r="G158">
-        <v>522.0167304221732</v>
-      </c>
-      <c r="H158">
-        <v>2077.070041157595</v>
-      </c>
-      <c r="I158">
-        <v>1462.741666154179</v>
-      </c>
-      <c r="J158">
-        <v>-493.6723389870249</v>
-      </c>
-      <c r="K158">
-        <v>-3533.268673957421</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>38</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>38.74994438658955</v>
-      </c>
-      <c r="G159">
-        <v>536.1466393582563</v>
-      </c>
-      <c r="H159">
-        <v>2084.331546668607</v>
-      </c>
-      <c r="I159">
-        <v>1570.557082022691</v>
-      </c>
-      <c r="J159">
-        <v>-549.1949614381722</v>
-      </c>
-      <c r="K159">
-        <v>-4009.263359314249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>38</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>38.31707686382282</v>
-      </c>
-      <c r="G160">
-        <v>550.2765482943395</v>
-      </c>
-      <c r="H160">
-        <v>2091.430080209911</v>
-      </c>
-      <c r="I160">
-        <v>1681.027353318603</v>
-      </c>
-      <c r="J160">
-        <v>-604.7175838893199</v>
-      </c>
-      <c r="K160">
-        <v>-4501.15331180354</v>
+        <v>3980073.826693365</v>
       </c>
     </row>
   </sheetData>
